--- a/MyMealPal/MyMealPal/Resources/Database.xlsx
+++ b/MyMealPal/MyMealPal/Resources/Database.xlsx
@@ -4,27 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="624" windowWidth="18876" windowHeight="8148"/>
+    <workbookView xWindow="516" yWindow="624" windowWidth="18876" windowHeight="8148" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
     <sheet name="Rice or Pasta" sheetId="2" r:id="rId2"/>
-    <sheet name="Breakfast" sheetId="3" r:id="rId3"/>
-    <sheet name="Chicken" sheetId="4" r:id="rId4"/>
-    <sheet name="Meat" sheetId="5" r:id="rId5"/>
-    <sheet name="Fish or Shrimps" sheetId="6" r:id="rId6"/>
-    <sheet name="Vegetables" sheetId="7" r:id="rId7"/>
-    <sheet name="Salads" sheetId="8" r:id="rId8"/>
-    <sheet name="Dinner" sheetId="9" r:id="rId9"/>
-    <sheet name="Milkshakes" sheetId="10" r:id="rId10"/>
-    <sheet name="Deserts" sheetId="11" r:id="rId11"/>
+    <sheet name="Chicken" sheetId="4" r:id="rId3"/>
+    <sheet name="Meat" sheetId="5" r:id="rId4"/>
+    <sheet name="Vegetables" sheetId="7" r:id="rId5"/>
+    <sheet name="Dinner" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="190">
   <si>
     <t>Ingredient</t>
   </si>
@@ -326,21 +321,6 @@
     <t>1-2,0.5,0.25,0.25,0.25-(1),(2)</t>
   </si>
   <si>
-    <t>Breakfast 1</t>
-  </si>
-  <si>
-    <t>Breakfast 2</t>
-  </si>
-  <si>
-    <t>Breakfast 3</t>
-  </si>
-  <si>
-    <t>Breakfast 4</t>
-  </si>
-  <si>
-    <t>Breakfast 5</t>
-  </si>
-  <si>
     <t>Butter Chicken</t>
   </si>
   <si>
@@ -443,70 +423,10 @@
     <t>Cook in oven</t>
   </si>
   <si>
-    <t>Classic Salad</t>
-  </si>
-  <si>
-    <t>Greek Salad</t>
-  </si>
-  <si>
-    <t>Taboli Salad</t>
-  </si>
-  <si>
-    <t>Tuna Salad</t>
-  </si>
-  <si>
-    <t>Beef Salad</t>
-  </si>
-  <si>
-    <t>Fruit Salad</t>
-  </si>
-  <si>
     <t>Parmesan Chicken Burger</t>
   </si>
   <si>
     <t>Add</t>
-  </si>
-  <si>
-    <t>Chicken Pizza</t>
-  </si>
-  <si>
-    <t>Meat Pizza</t>
-  </si>
-  <si>
-    <t>Vegetable Pizza</t>
-  </si>
-  <si>
-    <t>Meat Pie</t>
-  </si>
-  <si>
-    <t>Chicken Pie</t>
-  </si>
-  <si>
-    <t>Spinach Pie</t>
-  </si>
-  <si>
-    <t>Cheese Pie</t>
-  </si>
-  <si>
-    <t>Meat Crepe</t>
-  </si>
-  <si>
-    <t>Chicken Crepe</t>
-  </si>
-  <si>
-    <t>Banana Milkshake</t>
-  </si>
-  <si>
-    <t>Strawberry Milkshake</t>
-  </si>
-  <si>
-    <t>Rasberry Milkshake</t>
-  </si>
-  <si>
-    <t>Aish Assaraya</t>
-  </si>
-  <si>
-    <t>Basbosa</t>
   </si>
   <si>
     <t>Burger Bun,*Parmesan Chicken,Cheddar Cheese</t>
@@ -880,10 +800,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -893,18 +825,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1203,7 +1123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A82" sqref="A82:XFD82"/>
     </sheetView>
   </sheetViews>
@@ -1233,39 +1153,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="19" t="s">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A2" s="19"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
@@ -1273,34 +1193,34 @@
         <v>7</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>6</v>
@@ -1311,50 +1231,50 @@
       <c r="P2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
     </row>
     <row r="3" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="22"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="26"/>
     </row>
     <row r="4" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="25"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="22"/>
     </row>
     <row r="5" spans="1:18" ht="20.25" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -1503,7 +1423,7 @@
     </row>
     <row r="10" spans="1:18" ht="20.25" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="R10" s="13"/>
     </row>
@@ -1530,7 +1450,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R11" s="3">
         <v>1.95E-2</v>
@@ -1566,30 +1486,30 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="25"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="22"/>
     </row>
     <row r="14" spans="1:18" ht="20.25" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="B14" s="1">
         <v>1.65</v>
@@ -1634,7 +1554,7 @@
         <v>15</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R14" s="3">
         <v>1.1875E-2</v>
@@ -1663,7 +1583,7 @@
         <v>15</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R15" s="3">
         <v>1.537E-2</v>
@@ -1692,7 +1612,7 @@
         <v>15</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R16" s="3">
         <v>1.537E-2</v>
@@ -1721,7 +1641,7 @@
         <v>15</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R17" s="3">
         <v>1.537E-2</v>
@@ -1750,7 +1670,7 @@
         <v>15</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R18" s="3">
         <v>1.17E-2</v>
@@ -1808,7 +1728,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R20" s="3">
         <v>1.7579999999999998E-2</v>
@@ -1816,14 +1736,14 @@
     </row>
     <row r="21" spans="1:18" ht="20.25" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="Q21" s="8"/>
       <c r="R21" s="13"/>
     </row>
     <row r="22" spans="1:18" ht="20.25" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="Q22" s="8"/>
       <c r="R22" s="13"/>
@@ -1851,7 +1771,7 @@
         <v>18</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R23" s="3">
         <v>1.7579999999999998E-2</v>
@@ -1880,33 +1800,33 @@
         <v>18</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R24" s="3">
         <v>0.02</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="25"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="22"/>
     </row>
     <row r="26" spans="1:18" ht="20.25" customHeight="1">
       <c r="A26" s="2" t="s">
@@ -2055,7 +1975,7 @@
     </row>
     <row r="31" spans="1:18" ht="20.25" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="R31" s="13"/>
     </row>
@@ -2082,7 +2002,7 @@
         <v>18</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="R32" s="3">
         <v>0.5</v>
@@ -2090,7 +2010,7 @@
     </row>
     <row r="33" spans="1:18" ht="20.25" customHeight="1">
       <c r="A33" s="16" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="B33" s="1">
         <v>75</v>
@@ -2118,26 +2038,26 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="25"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="22"/>
     </row>
     <row r="35" spans="1:18" ht="20.25" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -2162,7 +2082,7 @@
         <v>18</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R35" s="3">
         <v>4.3400000000000001E-3</v>
@@ -2170,7 +2090,7 @@
     </row>
     <row r="36" spans="1:18" ht="20.25" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="Q36" s="8"/>
       <c r="R36" s="13"/>
@@ -2198,7 +2118,7 @@
         <v>18</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R37" s="3">
         <v>4.3299999999999996E-3</v>
@@ -2206,7 +2126,7 @@
     </row>
     <row r="38" spans="1:18" ht="20.25" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="13"/>
@@ -2234,7 +2154,7 @@
         <v>15</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R39" s="3">
         <v>3.9699999999999996E-3</v>
@@ -2242,7 +2162,7 @@
     </row>
     <row r="40" spans="1:18" ht="20.25" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="Q40" s="8"/>
       <c r="R40" s="13"/>
@@ -2270,7 +2190,7 @@
         <v>18</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R41" s="3">
         <v>6.5500000000000003E-3</v>
@@ -2278,7 +2198,7 @@
     </row>
     <row r="42" spans="1:18" ht="20.25" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="Q42" s="8"/>
       <c r="R42" s="13"/>
@@ -2314,10 +2234,10 @@
     </row>
     <row r="44" spans="1:18" ht="20.25" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R44" s="13"/>
     </row>
@@ -2344,7 +2264,7 @@
         <v>18</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R45" s="3">
         <v>2.5500000000000002E-3</v>
@@ -2373,7 +2293,7 @@
         <v>18</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R46" s="3">
         <v>8.6800000000000002E-3</v>
@@ -2402,7 +2322,7 @@
         <v>18</v>
       </c>
       <c r="Q47" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R47" s="3">
         <v>8.9499999999999996E-3</v>
@@ -2431,7 +2351,7 @@
         <v>18</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R48" s="3">
         <v>2.81E-3</v>
@@ -2460,7 +2380,7 @@
         <v>14</v>
       </c>
       <c r="Q49" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R49" s="3">
         <v>1.0947E-2</v>
@@ -2468,10 +2388,10 @@
     </row>
     <row r="50" spans="1:18" ht="20.25" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="Q50" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R50" s="13"/>
     </row>
@@ -2498,7 +2418,7 @@
         <v>18</v>
       </c>
       <c r="Q51" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R51" s="3">
         <v>2.1700000000000001E-3</v>
@@ -2527,7 +2447,7 @@
         <v>18</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R52" s="3">
         <v>3.2499999999999999E-3</v>
@@ -2556,7 +2476,7 @@
         <v>18</v>
       </c>
       <c r="Q53" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R53" s="3">
         <v>3.2399999999999998E-3</v>
@@ -2564,14 +2484,14 @@
     </row>
     <row r="54" spans="1:18" ht="20.25" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="Q54" s="8"/>
       <c r="R54" s="13"/>
     </row>
     <row r="55" spans="1:18" ht="20.25" customHeight="1">
       <c r="A55" s="14" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -2593,7 +2513,7 @@
     </row>
     <row r="56" spans="1:18" ht="20.25" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -2615,7 +2535,7 @@
     </row>
     <row r="57" spans="1:18" ht="20.25" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -2633,13 +2553,13 @@
       <c r="O57" s="12"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="17" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R57" s="15"/>
     </row>
     <row r="58" spans="1:18" ht="20.25" customHeight="1">
       <c r="A58" s="17" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -2661,7 +2581,7 @@
     </row>
     <row r="59" spans="1:18" ht="15" customHeight="1">
       <c r="A59" s="17" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -2682,26 +2602,26 @@
       <c r="R59" s="15"/>
     </row>
     <row r="60" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="26"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="21"/>
     </row>
     <row r="61" spans="1:18" ht="20.25" customHeight="1">
       <c r="A61" s="11" t="s">
@@ -2801,13 +2721,13 @@
     </row>
     <row r="64" spans="1:18" ht="20.25" customHeight="1">
       <c r="A64" s="14" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="R64" s="13"/>
     </row>
     <row r="65" spans="1:18" ht="20.25" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="R65" s="13"/>
     </row>
@@ -2841,26 +2761,26 @@
       </c>
     </row>
     <row r="67" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="25"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="22"/>
     </row>
     <row r="68" spans="1:18" ht="20.25" customHeight="1">
       <c r="A68" s="2" t="s">
@@ -2885,7 +2805,7 @@
         <v>14</v>
       </c>
       <c r="Q68" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R68" s="3">
         <v>2.2100000000000002E-2</v>
@@ -2914,33 +2834,33 @@
         <v>14</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="R69" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="24"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="24"/>
-      <c r="Q70" s="24"/>
-      <c r="R70" s="25"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="22"/>
     </row>
     <row r="71" spans="1:18" ht="20.25" customHeight="1">
       <c r="A71" s="2" t="s">
@@ -3030,26 +2950,26 @@
       </c>
     </row>
     <row r="74" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="24"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="24"/>
-      <c r="R74" s="25"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="22"/>
     </row>
     <row r="75" spans="1:18" ht="20.25" customHeight="1">
       <c r="A75" s="2" t="s">
@@ -3256,7 +3176,7 @@
     </row>
     <row r="82" spans="1:18" ht="20.25" customHeight="1">
       <c r="A82" s="14" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="R82" s="13"/>
     </row>
@@ -3312,7 +3232,7 @@
         <v>15</v>
       </c>
       <c r="Q84" s="8" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="R84" s="3">
         <v>2.6259999999999999E-2</v>
@@ -3341,7 +3261,7 @@
         <v>15</v>
       </c>
       <c r="Q85" s="8" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="R85" s="3">
         <v>2.4680000000000001E-2</v>
@@ -3377,72 +3297,72 @@
       </c>
     </row>
     <row r="87" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A87" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="24"/>
-      <c r="N87" s="24"/>
-      <c r="O87" s="24"/>
-      <c r="P87" s="24"/>
-      <c r="Q87" s="24"/>
-      <c r="R87" s="25"/>
+      <c r="A87" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="20"/>
+      <c r="N87" s="20"/>
+      <c r="O87" s="20"/>
+      <c r="P87" s="20"/>
+      <c r="Q87" s="20"/>
+      <c r="R87" s="22"/>
     </row>
     <row r="88" spans="1:18" ht="20.25" customHeight="1">
       <c r="A88" s="14" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="R88" s="15"/>
     </row>
     <row r="89" spans="1:18" ht="20.25" customHeight="1">
       <c r="A89" s="14" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="R89" s="15"/>
     </row>
     <row r="90" spans="1:18" ht="20.25" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="R90" s="15"/>
     </row>
     <row r="91" spans="1:18" ht="20.25" customHeight="1">
       <c r="A91" s="14" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="R91" s="15"/>
     </row>
     <row r="92" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24"/>
-      <c r="K92" s="24"/>
-      <c r="L92" s="24"/>
-      <c r="M92" s="24"/>
-      <c r="N92" s="24"/>
-      <c r="O92" s="24"/>
-      <c r="P92" s="24"/>
-      <c r="Q92" s="24"/>
-      <c r="R92" s="25"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="20"/>
+      <c r="N92" s="20"/>
+      <c r="O92" s="20"/>
+      <c r="P92" s="20"/>
+      <c r="Q92" s="20"/>
+      <c r="R92" s="22"/>
     </row>
     <row r="93" spans="1:18" ht="20.25" customHeight="1">
       <c r="A93" s="2" t="s">
@@ -3475,7 +3395,7 @@
     </row>
     <row r="94" spans="1:18" ht="20.25" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="R94" s="13"/>
     </row>
@@ -3539,31 +3459,31 @@
     </row>
     <row r="97" spans="1:18" ht="20.25" customHeight="1">
       <c r="A97" s="14" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="R97" s="13"/>
     </row>
     <row r="98" spans="1:18" ht="20.25" customHeight="1">
       <c r="A98" s="14" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="R98" s="13"/>
     </row>
     <row r="99" spans="1:18" ht="20.25" customHeight="1">
       <c r="A99" s="14" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="R99" s="13"/>
     </row>
     <row r="100" spans="1:18" ht="20.25" customHeight="1">
       <c r="A100" s="14" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="R100" s="13"/>
     </row>
     <row r="101" spans="1:18" ht="20.25" customHeight="1">
       <c r="A101" s="14" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="R101" s="13"/>
     </row>
@@ -3597,49 +3517,49 @@
       </c>
     </row>
     <row r="103" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A103" s="23" t="s">
+      <c r="A103" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B103" s="24"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="24"/>
-      <c r="I103" s="24"/>
-      <c r="J103" s="24"/>
-      <c r="K103" s="24"/>
-      <c r="L103" s="24"/>
-      <c r="M103" s="24"/>
-      <c r="N103" s="24"/>
-      <c r="O103" s="24"/>
-      <c r="P103" s="24"/>
-      <c r="Q103" s="24"/>
-      <c r="R103" s="25"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="20"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="20"/>
+      <c r="O103" s="20"/>
+      <c r="P103" s="20"/>
+      <c r="Q103" s="20"/>
+      <c r="R103" s="22"/>
     </row>
     <row r="104" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A104" s="20"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="21"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="21"/>
-      <c r="H104" s="21"/>
-      <c r="I104" s="21"/>
-      <c r="J104" s="21"/>
-      <c r="K104" s="21"/>
-      <c r="L104" s="21"/>
-      <c r="M104" s="21"/>
-      <c r="N104" s="21"/>
-      <c r="O104" s="21"/>
-      <c r="P104" s="21"/>
-      <c r="Q104" s="21"/>
-      <c r="R104" s="22"/>
+      <c r="A104" s="24"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="25"/>
+      <c r="L104" s="25"/>
+      <c r="M104" s="25"/>
+      <c r="N104" s="25"/>
+      <c r="O104" s="25"/>
+      <c r="P104" s="25"/>
+      <c r="Q104" s="25"/>
+      <c r="R104" s="26"/>
     </row>
     <row r="105" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A105" s="19" t="s">
+      <c r="A105" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B105" s="9" t="s">
@@ -3649,34 +3569,34 @@
         <v>7</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="K105" s="9" t="s">
         <v>8</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="N105" s="9" t="s">
         <v>6</v>
@@ -3687,38 +3607,38 @@
       <c r="P105" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q105" s="19" t="s">
+      <c r="Q105" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="R105" s="19" t="s">
+      <c r="R105" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A106" s="19"/>
+      <c r="A106" s="18"/>
       <c r="B106" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="18"/>
-      <c r="N106" s="18"/>
-      <c r="O106" s="18" t="s">
+      <c r="D106" s="23"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="23"/>
+      <c r="K106" s="23"/>
+      <c r="L106" s="23"/>
+      <c r="M106" s="23"/>
+      <c r="N106" s="23"/>
+      <c r="O106" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P106" s="18"/>
-      <c r="Q106" s="19"/>
-      <c r="R106" s="19"/>
+      <c r="P106" s="23"/>
+      <c r="Q106" s="18"/>
+      <c r="R106" s="18"/>
     </row>
     <row r="107" spans="1:18" ht="20.25" customHeight="1"/>
     <row r="108" spans="1:18" ht="20.25" customHeight="1"/>
@@ -3745,13 +3665,6 @@
     <row r="129" ht="20.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="R105:R106"/>
-    <mergeCell ref="A60:R60"/>
-    <mergeCell ref="A67:R67"/>
-    <mergeCell ref="A70:R70"/>
-    <mergeCell ref="A74:R74"/>
-    <mergeCell ref="A92:R92"/>
-    <mergeCell ref="A87:R87"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
@@ -3768,2707 +3681,14 @@
     <mergeCell ref="A13:R13"/>
     <mergeCell ref="A25:R25"/>
     <mergeCell ref="A34:R34"/>
+    <mergeCell ref="R105:R106"/>
+    <mergeCell ref="A60:R60"/>
+    <mergeCell ref="A67:R67"/>
+    <mergeCell ref="A70:R70"/>
+    <mergeCell ref="A74:R74"/>
+    <mergeCell ref="A92:R92"/>
+    <mergeCell ref="A87:R87"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="18.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1">
-      <c r="A1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="13.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1">
-      <c r="A1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -6479,7 +3699,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -7848,1360 +5068,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.44140625" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K100"/>
   <sheetViews>
@@ -9248,22 +5114,22 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1">
         <v>200</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -9273,22 +5139,22 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E3" s="1">
         <v>200</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -9298,22 +5164,22 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E4" s="1">
         <v>200</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -9323,22 +5189,22 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1">
         <v>200</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -9348,22 +5214,22 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E6" s="1">
         <v>200</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -9373,22 +5239,22 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E7" s="1">
         <v>200</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -9398,22 +5264,22 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E8" s="1">
         <v>200</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -10623,12 +6489,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C30:C31"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -10670,16 +6536,16 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E2" s="1">
         <v>200</v>
@@ -10698,13 +6564,13 @@
         <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E3" s="1">
         <v>200</v>
@@ -10720,16 +6586,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="E4" s="1">
         <v>200</v>
@@ -10745,7 +6611,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -11999,1358 +7865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="13.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1">
-      <c r="A1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K100"/>
   <sheetViews>
@@ -13400,7 +7915,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>44</v>
@@ -13425,7 +7940,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>47</v>
@@ -13450,7 +7965,7 @@
         <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>57</v>
@@ -14726,1369 +9241,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="12.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1">
-      <c r="A1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K100"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -16130,16 +9288,16 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -16154,9 +9312,7 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -16169,9 +9325,7 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -16184,9 +9338,7 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -16199,9 +9351,7 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -16214,9 +9364,7 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -16229,9 +9377,7 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -16244,9 +9390,7 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -16259,9 +9403,7 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -16274,9 +9416,7 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>155</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -17289,162 +10429,6 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
